--- a/biology/Botanique/Paul_Kummer/Paul_Kummer.xlsx
+++ b/biology/Botanique/Paul_Kummer/Paul_Kummer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Kummer est un prêtre et un mycologue allemand, né le 22 août 1834 à Zerbst et mort le 7 juillet 1912 à Hann. Münden.
 Il est précepteur, de 1857 à 1863, à Zerbst puis, de 1863 à 1877, prêtre assistant dans cette même ville. Il est ordonné prêtre en 1877 à Hanovre.
@@ -512,9 +524,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1871 : Der Führer in die Pilzkunde : 146 p. – réédition en 1881-1884, sous le même titre et en deux volumes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1871 : Der Führer in die Pilzkunde : 146 p. – réédition en 1881-1884, sous le même titre et en deux volumes.
 1874 : Der Führer in die Flechtenkunde.
 1880 : Praktisches Pilzbuch für jedermann.</t>
         </is>
